--- a/NTK-MAKS dnevni izvestaj.xlsx
+++ b/NTK-MAKS dnevni izvestaj.xlsx
@@ -234,7 +234,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,12 +349,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -376,7 +370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -573,73 +567,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -759,7 +686,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -771,41 +698,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="17" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="19" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="20" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="19" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,37 +714,37 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,7 +1130,7 @@
   <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H7" sqref="H7:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1249,68 +1149,68 @@
   <sheetData>
     <row r="2" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="21" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="G5" s="21" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="G5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1334,9 +1234,18 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
+      <c r="H7" s="4" t="str">
+        <f>IF(Sheet2!E1="", "", Sheet2!E1)</f>
+        <v/>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f>IF(Sheet2!F1="", "", Sheet2!F1)</f>
+        <v/>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f>IF(Sheet2!G1="", "", Sheet2!G1)</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
@@ -1357,9 +1266,18 @@
       <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="13"/>
+      <c r="H8" s="4" t="str">
+        <f>IF(Sheet2!E2="", "", Sheet2!E2)</f>
+        <v/>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f>IF(Sheet2!F2="", "", Sheet2!F2)</f>
+        <v/>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f>IF(Sheet2!G2="", "", Sheet2!G2)</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -1380,9 +1298,18 @@
       <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
+      <c r="H9" s="4" t="str">
+        <f>IF(Sheet2!E3="", "", Sheet2!E3)</f>
+        <v/>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f>IF(Sheet2!F3="", "", Sheet2!F3)</f>
+        <v/>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>IF(Sheet2!G3="", "", Sheet2!G3)</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
@@ -1403,9 +1330,18 @@
       <c r="G10" s="3">
         <v>4</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
+      <c r="H10" s="4" t="str">
+        <f>IF(Sheet2!E4="", "", Sheet2!E4)</f>
+        <v/>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f>IF(Sheet2!F4="", "", Sheet2!F4)</f>
+        <v/>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f>IF(Sheet2!G4="", "", Sheet2!G4)</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -1426,9 +1362,18 @@
       <c r="G11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="4" t="str">
+        <f>IF(Sheet2!E5="", "", Sheet2!E5)</f>
+        <v/>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>IF(Sheet2!F5="", "", Sheet2!F5)</f>
+        <v/>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f>IF(Sheet2!G5="", "", Sheet2!G5)</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -1449,9 +1394,18 @@
       <c r="G12" s="3">
         <v>6</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5"/>
+      <c r="H12" s="4" t="str">
+        <f>IF(Sheet2!E6="", "", Sheet2!E6)</f>
+        <v/>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f>IF(Sheet2!F6="", "", Sheet2!F6)</f>
+        <v/>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f>IF(Sheet2!G6="", "", Sheet2!G6)</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -1472,9 +1426,18 @@
       <c r="G13" s="2">
         <v>7</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
+      <c r="H13" s="4" t="str">
+        <f>IF(Sheet2!E7="", "", Sheet2!E7)</f>
+        <v/>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f>IF(Sheet2!F7="", "", Sheet2!F7)</f>
+        <v/>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f>IF(Sheet2!G7="", "", Sheet2!G7)</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1495,9 +1458,18 @@
       <c r="G14" s="3">
         <v>8</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
+      <c r="H14" s="4" t="str">
+        <f>IF(Sheet2!E8="", "", Sheet2!E8)</f>
+        <v/>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f>IF(Sheet2!F8="", "", Sheet2!F8)</f>
+        <v/>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f>IF(Sheet2!G8="", "", Sheet2!G8)</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -1518,9 +1490,18 @@
       <c r="G15" s="2">
         <v>9</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
+      <c r="H15" s="4" t="str">
+        <f>IF(Sheet2!E9="", "", Sheet2!E9)</f>
+        <v/>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f>IF(Sheet2!F9="", "", Sheet2!F9)</f>
+        <v/>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f>IF(Sheet2!G9="", "", Sheet2!G9)</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -1541,9 +1522,18 @@
       <c r="G16" s="3">
         <v>10</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
+      <c r="H16" s="4" t="str">
+        <f>IF(Sheet2!E10="", "", Sheet2!E10)</f>
+        <v/>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f>IF(Sheet2!F10="", "", Sheet2!F10)</f>
+        <v/>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f>IF(Sheet2!G10="", "", Sheet2!G10)</f>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -1564,9 +1554,18 @@
       <c r="G17" s="2">
         <v>11</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
+      <c r="H17" s="4" t="str">
+        <f>IF(Sheet2!E11="", "", Sheet2!E11)</f>
+        <v/>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f>IF(Sheet2!F11="", "", Sheet2!F11)</f>
+        <v/>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f>IF(Sheet2!G11="", "", Sheet2!G11)</f>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
@@ -1587,9 +1586,18 @@
       <c r="G18" s="3">
         <v>12</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
+      <c r="H18" s="4" t="str">
+        <f>IF(Sheet2!E12="", "", Sheet2!E12)</f>
+        <v/>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f>IF(Sheet2!F12="", "", Sheet2!F12)</f>
+        <v/>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f>IF(Sheet2!G12="", "", Sheet2!G12)</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
@@ -1610,9 +1618,18 @@
       <c r="G19" s="2">
         <v>13</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
+      <c r="H19" s="4" t="str">
+        <f>IF(Sheet2!E13="", "", Sheet2!E13)</f>
+        <v/>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f>IF(Sheet2!F13="", "", Sheet2!F13)</f>
+        <v/>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f>IF(Sheet2!G13="", "", Sheet2!G13)</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
@@ -1633,9 +1650,18 @@
       <c r="G20" s="3">
         <v>14</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
+      <c r="H20" s="4" t="str">
+        <f>IF(Sheet2!E14="", "", Sheet2!E14)</f>
+        <v/>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f>IF(Sheet2!F14="", "", Sheet2!F14)</f>
+        <v/>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f>IF(Sheet2!G14="", "", Sheet2!G14)</f>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
@@ -1656,9 +1682,18 @@
       <c r="G21" s="2">
         <v>15</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
+      <c r="H21" s="4" t="str">
+        <f>IF(Sheet2!E15="", "", Sheet2!E15)</f>
+        <v/>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f>IF(Sheet2!F15="", "", Sheet2!F15)</f>
+        <v/>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f>IF(Sheet2!G15="", "", Sheet2!G15)</f>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
@@ -1679,9 +1714,18 @@
       <c r="G22" s="3">
         <v>16</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
+      <c r="H22" s="4" t="str">
+        <f>IF(Sheet2!E16="", "", Sheet2!E16)</f>
+        <v/>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f>IF(Sheet2!F16="", "", Sheet2!F16)</f>
+        <v/>
+      </c>
+      <c r="J22" s="4" t="str">
+        <f>IF(Sheet2!G16="", "", Sheet2!G16)</f>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
@@ -1702,9 +1746,18 @@
       <c r="G23" s="2">
         <v>17</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
+      <c r="H23" s="4" t="str">
+        <f>IF(Sheet2!E17="", "", Sheet2!E17)</f>
+        <v/>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f>IF(Sheet2!F17="", "", Sheet2!F17)</f>
+        <v/>
+      </c>
+      <c r="J23" s="4" t="str">
+        <f>IF(Sheet2!G17="", "", Sheet2!G17)</f>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
@@ -1725,9 +1778,18 @@
       <c r="G24" s="3">
         <v>18</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
+      <c r="H24" s="4" t="str">
+        <f>IF(Sheet2!E18="", "", Sheet2!E18)</f>
+        <v/>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f>IF(Sheet2!F18="", "", Sheet2!F18)</f>
+        <v/>
+      </c>
+      <c r="J24" s="4" t="str">
+        <f>IF(Sheet2!G18="", "", Sheet2!G18)</f>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
@@ -1748,9 +1810,18 @@
       <c r="G25" s="2">
         <v>19</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
+      <c r="H25" s="4" t="str">
+        <f>IF(Sheet2!E19="", "", Sheet2!E19)</f>
+        <v/>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f>IF(Sheet2!F19="", "", Sheet2!F19)</f>
+        <v/>
+      </c>
+      <c r="J25" s="4" t="str">
+        <f>IF(Sheet2!G19="", "", Sheet2!G19)</f>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
@@ -1771,9 +1842,18 @@
       <c r="G26" s="3">
         <v>20</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="7"/>
+      <c r="H26" s="4" t="str">
+        <f>IF(Sheet2!E20="", "", Sheet2!E20)</f>
+        <v/>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f>IF(Sheet2!F20="", "", Sheet2!F20)</f>
+        <v/>
+      </c>
+      <c r="J26" s="4" t="str">
+        <f>IF(Sheet2!G20="", "", Sheet2!G20)</f>
+        <v/>
+      </c>
     </row>
     <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
@@ -1794,9 +1874,18 @@
       <c r="G27" s="2">
         <v>21</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
+      <c r="H27" s="4" t="str">
+        <f>IF(Sheet2!E21="", "", Sheet2!E21)</f>
+        <v/>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f>IF(Sheet2!F21="", "", Sheet2!F21)</f>
+        <v/>
+      </c>
+      <c r="J27" s="4" t="str">
+        <f>IF(Sheet2!G21="", "", Sheet2!G21)</f>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
@@ -1817,9 +1906,18 @@
       <c r="G28" s="3">
         <v>22</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="7"/>
+      <c r="H28" s="4" t="str">
+        <f>IF(Sheet2!E22="", "", Sheet2!E22)</f>
+        <v/>
+      </c>
+      <c r="I28" s="4" t="str">
+        <f>IF(Sheet2!F22="", "", Sheet2!F22)</f>
+        <v/>
+      </c>
+      <c r="J28" s="4" t="str">
+        <f>IF(Sheet2!G22="", "", Sheet2!G22)</f>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
@@ -1840,9 +1938,18 @@
       <c r="G29" s="2">
         <v>23</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="7"/>
+      <c r="H29" s="4" t="str">
+        <f>IF(Sheet2!E23="", "", Sheet2!E23)</f>
+        <v/>
+      </c>
+      <c r="I29" s="4" t="str">
+        <f>IF(Sheet2!F23="", "", Sheet2!F23)</f>
+        <v/>
+      </c>
+      <c r="J29" s="4" t="str">
+        <f>IF(Sheet2!G23="", "", Sheet2!G23)</f>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
@@ -1863,9 +1970,18 @@
       <c r="G30" s="3">
         <v>24</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
+      <c r="H30" s="4" t="str">
+        <f>IF(Sheet2!E24="", "", Sheet2!E24)</f>
+        <v/>
+      </c>
+      <c r="I30" s="4" t="str">
+        <f>IF(Sheet2!F24="", "", Sheet2!F24)</f>
+        <v/>
+      </c>
+      <c r="J30" s="4" t="str">
+        <f>IF(Sheet2!G24="", "", Sheet2!G24)</f>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
@@ -1886,9 +2002,18 @@
       <c r="G31" s="2">
         <v>25</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
+      <c r="H31" s="4" t="str">
+        <f>IF(Sheet2!E25="", "", Sheet2!E25)</f>
+        <v/>
+      </c>
+      <c r="I31" s="4" t="str">
+        <f>IF(Sheet2!F25="", "", Sheet2!F25)</f>
+        <v/>
+      </c>
+      <c r="J31" s="4" t="str">
+        <f>IF(Sheet2!G25="", "", Sheet2!G25)</f>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
@@ -1909,9 +2034,18 @@
       <c r="G32" s="3">
         <v>26</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="7"/>
+      <c r="H32" s="4" t="str">
+        <f>IF(Sheet2!E26="", "", Sheet2!E26)</f>
+        <v/>
+      </c>
+      <c r="I32" s="4" t="str">
+        <f>IF(Sheet2!F26="", "", Sheet2!F26)</f>
+        <v/>
+      </c>
+      <c r="J32" s="4" t="str">
+        <f>IF(Sheet2!G26="", "", Sheet2!G26)</f>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
@@ -1932,9 +2066,18 @@
       <c r="G33" s="2">
         <v>27</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="7"/>
+      <c r="H33" s="4" t="str">
+        <f>IF(Sheet2!E27="", "", Sheet2!E27)</f>
+        <v/>
+      </c>
+      <c r="I33" s="4" t="str">
+        <f>IF(Sheet2!F27="", "", Sheet2!F27)</f>
+        <v/>
+      </c>
+      <c r="J33" s="4" t="str">
+        <f>IF(Sheet2!G27="", "", Sheet2!G27)</f>
+        <v/>
+      </c>
     </row>
     <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
@@ -1955,9 +2098,18 @@
       <c r="G34" s="3">
         <v>28</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="7"/>
+      <c r="H34" s="4" t="str">
+        <f>IF(Sheet2!E28="", "", Sheet2!E28)</f>
+        <v/>
+      </c>
+      <c r="I34" s="4" t="str">
+        <f>IF(Sheet2!F28="", "", Sheet2!F28)</f>
+        <v/>
+      </c>
+      <c r="J34" s="4" t="str">
+        <f>IF(Sheet2!G28="", "", Sheet2!G28)</f>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
@@ -1978,9 +2130,18 @@
       <c r="G35" s="2">
         <v>29</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="12"/>
+      <c r="H35" s="4" t="str">
+        <f>IF(Sheet2!E29="", "", Sheet2!E29)</f>
+        <v/>
+      </c>
+      <c r="I35" s="4" t="str">
+        <f>IF(Sheet2!F29="", "", Sheet2!F29)</f>
+        <v/>
+      </c>
+      <c r="J35" s="4" t="str">
+        <f>IF(Sheet2!G29="", "", Sheet2!G29)</f>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
@@ -2001,9 +2162,18 @@
       <c r="G36" s="3">
         <v>30</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="12"/>
+      <c r="H36" s="4" t="str">
+        <f>IF(Sheet2!E30="", "", Sheet2!E30)</f>
+        <v/>
+      </c>
+      <c r="I36" s="4" t="str">
+        <f>IF(Sheet2!F30="", "", Sheet2!F30)</f>
+        <v/>
+      </c>
+      <c r="J36" s="4" t="str">
+        <f>IF(Sheet2!G30="", "", Sheet2!G30)</f>
+        <v/>
+      </c>
     </row>
     <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
@@ -2024,9 +2194,18 @@
       <c r="G37" s="2">
         <v>31</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="9"/>
+      <c r="H37" s="4" t="str">
+        <f>IF(Sheet2!E31="", "", Sheet2!E31)</f>
+        <v/>
+      </c>
+      <c r="I37" s="4" t="str">
+        <f>IF(Sheet2!F31="", "", Sheet2!F31)</f>
+        <v/>
+      </c>
+      <c r="J37" s="4" t="str">
+        <f>IF(Sheet2!G31="", "", Sheet2!G31)</f>
+        <v/>
+      </c>
     </row>
     <row r="38" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
@@ -2047,26 +2226,35 @@
       <c r="G38" s="3">
         <v>32</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="10"/>
+      <c r="H38" s="4" t="str">
+        <f>IF(Sheet2!E32="", "", Sheet2!E32)</f>
+        <v/>
+      </c>
+      <c r="I38" s="4" t="str">
+        <f>IF(Sheet2!F32="", "", Sheet2!F32)</f>
+        <v/>
+      </c>
+      <c r="J38" s="4" t="str">
+        <f>IF(Sheet2!G32="", "", Sheet2!G32)</f>
+        <v/>
+      </c>
     </row>
     <row r="39" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="14">
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="5">
         <f>SUM(E7:E38)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="14">
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="5">
         <f>SUM(J7:J38)</f>
         <v>0</v>
       </c>
@@ -2093,7 +2281,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2114,7 +2304,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="A1:H34"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
